--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.94460233333334</v>
+        <v>16.782487</v>
       </c>
       <c r="H2">
-        <v>83.83380700000001</v>
+        <v>50.347461</v>
       </c>
       <c r="I2">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="J2">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N2">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1598.539194150613</v>
+        <v>0.2338863329943333</v>
       </c>
       <c r="R2">
-        <v>14386.85274735552</v>
+        <v>2.104976996949</v>
       </c>
       <c r="S2">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="T2">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +602,10 @@
         <v>3.273078</v>
       </c>
       <c r="I3">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="J3">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,10 +614,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N3">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>62.41090146976266</v>
+        <v>0.01520490201133333</v>
       </c>
       <c r="R3">
-        <v>561.6981132278639</v>
+        <v>0.136844118102</v>
       </c>
       <c r="S3">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="T3">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.236046333333333</v>
+        <v>0.2655986666666667</v>
       </c>
       <c r="H4">
-        <v>3.708139</v>
+        <v>0.7967960000000001</v>
       </c>
       <c r="I4">
-        <v>0.04083177911179101</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="J4">
-        <v>0.04083177911179101</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,10 +676,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N4">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>70.70662470163688</v>
+        <v>0.003701471551555556</v>
       </c>
       <c r="R4">
-        <v>636.359622314732</v>
+        <v>0.033313243964</v>
       </c>
       <c r="S4">
-        <v>0.04083177911179101</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="T4">
-        <v>0.04083177911179101</v>
+        <v>0.01464231940061012</v>
       </c>
     </row>
   </sheetData>
